--- a/受控文件/组内评分/评分表.xlsx
+++ b/受控文件/组内评分/评分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\组内评分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEEA70A-3EBD-49CD-AFC8-52B2F314FD06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564B97A-F17A-4690-A590-A65DB037DB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,22 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>工作分工</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,6 +196,30 @@
   </si>
   <si>
     <t>态度评分（50%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转课堂01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第五节第六节相关PPT的制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第七节第八节相关PPT的制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第一节第二节相关PPT的制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章第三节第四节相关PPT的制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT宣讲，会议纪要的记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -311,13 +346,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +411,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,34 +453,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -718,10 +790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.3">
@@ -731,21 +803,21 @@
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="17" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="2"/>
@@ -784,447 +856,447 @@
       <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>100</v>
       </c>
-      <c r="D4" s="20">
-        <v>93</v>
-      </c>
-      <c r="E4" s="20">
-        <v>93</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="D4" s="16">
+        <v>93</v>
+      </c>
+      <c r="E4" s="16">
+        <v>93</v>
+      </c>
+      <c r="F4" s="16">
         <v>100</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>99</v>
       </c>
-      <c r="H4" s="16">
-        <v>93</v>
-      </c>
-      <c r="I4" s="21">
-        <v>93</v>
-      </c>
-      <c r="J4" s="21">
-        <v>93</v>
-      </c>
-      <c r="K4" s="21">
+      <c r="H4" s="14">
+        <v>93</v>
+      </c>
+      <c r="I4" s="12">
+        <v>93</v>
+      </c>
+      <c r="J4" s="12">
+        <v>93</v>
+      </c>
+      <c r="K4" s="12">
         <v>96</v>
       </c>
-      <c r="L4" s="21">
-        <v>93</v>
-      </c>
-      <c r="M4" s="22">
+      <c r="L4" s="12">
+        <v>93</v>
+      </c>
+      <c r="M4" s="13">
         <f>0.1*(C4+D4+E4+F4+G4+H4+I4+J4+K4+L4)</f>
         <v>95.300000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>100</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>90</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>90</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="16">
         <v>100</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="17">
         <v>99</v>
       </c>
-      <c r="H9" s="20">
-        <v>93</v>
-      </c>
-      <c r="I9" s="21">
-        <v>93</v>
-      </c>
-      <c r="J9" s="21">
-        <v>93</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="H9" s="16">
+        <v>93</v>
+      </c>
+      <c r="I9" s="12">
+        <v>93</v>
+      </c>
+      <c r="J9" s="12">
+        <v>93</v>
+      </c>
+      <c r="K9" s="12">
         <v>95</v>
       </c>
-      <c r="L9" s="23">
-        <v>93</v>
-      </c>
-      <c r="M9" s="22">
+      <c r="L9" s="17">
+        <v>93</v>
+      </c>
+      <c r="M9" s="13">
         <f t="shared" ref="M9" si="0">0.1*(C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)</f>
         <v>94.600000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>100</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>92</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>90</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>100</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="16">
         <v>99</v>
       </c>
-      <c r="H14" s="16">
-        <v>93</v>
-      </c>
-      <c r="I14" s="21">
-        <v>93</v>
-      </c>
-      <c r="J14" s="21">
-        <v>93</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="H14" s="14">
+        <v>93</v>
+      </c>
+      <c r="I14" s="12">
+        <v>93</v>
+      </c>
+      <c r="J14" s="12">
+        <v>93</v>
+      </c>
+      <c r="K14" s="12">
         <v>95</v>
       </c>
-      <c r="L14" s="23">
-        <v>93</v>
-      </c>
-      <c r="M14" s="22">
+      <c r="L14" s="17">
+        <v>93</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" ref="M14" si="1">0.1*(C14+D14+E14+F14+G14+H14+I14+J14+K14+L14)</f>
         <v>94.800000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>100</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>95</v>
       </c>
-      <c r="E19" s="20">
-        <v>93</v>
-      </c>
-      <c r="F19" s="20">
+      <c r="E19" s="16">
+        <v>93</v>
+      </c>
+      <c r="F19" s="16">
         <v>99</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="17">
         <v>99</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="16">
         <v>95</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="12">
         <v>95</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="12">
         <v>95</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="12">
         <v>95</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="12">
         <v>95</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="13">
         <f t="shared" ref="M19" si="2">0.1*(C19+D19+E19+F19+G19+H19+I19+J19+K19+L19)</f>
         <v>96.100000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
@@ -1233,37 +1305,37 @@
       <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <v>100</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <v>92</v>
       </c>
-      <c r="E24" s="20">
-        <v>93</v>
-      </c>
-      <c r="F24" s="20">
+      <c r="E24" s="16">
+        <v>93</v>
+      </c>
+      <c r="F24" s="16">
         <v>100</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="16">
         <v>96</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="14">
         <v>90</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="12">
         <v>95</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="12">
         <v>95</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="12">
         <v>96</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="17">
         <v>90</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="13">
         <f t="shared" ref="M24" si="3">0.1*(C24+D24+E24+F24+G24+H24+I24+J24+K24+L24)</f>
         <v>94.7</v>
       </c>
@@ -1273,71 +1345,648 @@
       <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.649999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="26"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14">
+        <v>93</v>
+      </c>
+      <c r="D33" s="16">
+        <v>93</v>
+      </c>
+      <c r="E33" s="16">
+        <v>93</v>
+      </c>
+      <c r="F33" s="16">
+        <v>99</v>
+      </c>
+      <c r="G33" s="16">
+        <v>97</v>
+      </c>
+      <c r="H33" s="14">
+        <v>95</v>
+      </c>
+      <c r="I33" s="12">
+        <v>95</v>
+      </c>
+      <c r="J33" s="12">
+        <v>96</v>
+      </c>
+      <c r="K33" s="12">
+        <v>99</v>
+      </c>
+      <c r="L33" s="12">
+        <v>96</v>
+      </c>
+      <c r="M33" s="13">
+        <f>0.1*(C33+D33+E33+F33+G33+H33+I33+J33+K33+L33)</f>
+        <v>95.600000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="14">
+        <v>93</v>
+      </c>
+      <c r="D38" s="16">
+        <v>92</v>
+      </c>
+      <c r="E38" s="16">
+        <v>92</v>
+      </c>
+      <c r="F38" s="16">
+        <v>98</v>
+      </c>
+      <c r="G38" s="17">
+        <v>98</v>
+      </c>
+      <c r="H38" s="16">
+        <v>95</v>
+      </c>
+      <c r="I38" s="12">
+        <v>94</v>
+      </c>
+      <c r="J38" s="12">
+        <v>95</v>
+      </c>
+      <c r="K38" s="12">
+        <v>98</v>
+      </c>
+      <c r="L38" s="17">
+        <v>98</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" ref="M38" si="4">0.1*(C38+D38+E38+F38+G38+H38+I38+J38+K38+L38)</f>
+        <v>95.300000000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="14">
+        <v>93</v>
+      </c>
+      <c r="D43" s="16">
+        <v>92</v>
+      </c>
+      <c r="E43" s="16">
+        <v>92</v>
+      </c>
+      <c r="F43" s="16">
+        <v>97</v>
+      </c>
+      <c r="G43" s="16">
+        <v>98</v>
+      </c>
+      <c r="H43" s="14">
+        <v>95</v>
+      </c>
+      <c r="I43" s="12">
+        <v>94</v>
+      </c>
+      <c r="J43" s="12">
+        <v>95</v>
+      </c>
+      <c r="K43" s="12">
+        <v>99</v>
+      </c>
+      <c r="L43" s="17">
+        <v>98</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" ref="M43" si="5">0.1*(C43+D43+E43+F43+G43+H43+I43+J43+K43+L43)</f>
+        <v>95.300000000000011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="14">
+        <v>93</v>
+      </c>
+      <c r="D48" s="16">
+        <v>93</v>
+      </c>
+      <c r="E48" s="16">
+        <v>93</v>
+      </c>
+      <c r="F48" s="16">
+        <v>96</v>
+      </c>
+      <c r="G48" s="17">
+        <v>99</v>
+      </c>
+      <c r="H48" s="16">
+        <v>95</v>
+      </c>
+      <c r="I48" s="12">
+        <v>94</v>
+      </c>
+      <c r="J48" s="12">
+        <v>96</v>
+      </c>
+      <c r="K48" s="12">
+        <v>95</v>
+      </c>
+      <c r="L48" s="12">
+        <v>99</v>
+      </c>
+      <c r="M48" s="13">
+        <f t="shared" ref="M48" si="6">0.1*(C48+D48+E48+F48+G48+H48+I48+J48+K48+L48)</f>
+        <v>95.300000000000011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="14">
+        <v>95</v>
+      </c>
+      <c r="D53" s="16">
+        <v>94</v>
+      </c>
+      <c r="E53" s="16">
+        <v>94</v>
+      </c>
+      <c r="F53" s="16">
+        <v>98</v>
+      </c>
+      <c r="G53" s="16">
+        <v>96</v>
+      </c>
+      <c r="H53" s="14">
+        <v>95</v>
+      </c>
+      <c r="I53" s="12">
+        <v>95</v>
+      </c>
+      <c r="J53" s="12">
+        <v>96</v>
+      </c>
+      <c r="K53" s="12">
+        <v>99</v>
+      </c>
+      <c r="L53" s="17">
+        <v>93</v>
+      </c>
+      <c r="M53" s="13">
+        <f t="shared" ref="M53" si="7">0.1*(C53+D53+E53+F53+G53+H53+I53+J53+K53+L53)</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="137">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K24:K28"/>
     <mergeCell ref="L24:L28"/>
@@ -1354,13 +2003,11 @@
     <mergeCell ref="K14:K18"/>
     <mergeCell ref="J19:J23"/>
     <mergeCell ref="J24:J28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="I19:I23"/>
     <mergeCell ref="M4:M8"/>
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="H9:H13"/>
@@ -1368,26 +2015,14 @@
     <mergeCell ref="G14:G18"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="I14:I18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A2:A3"/>
@@ -1396,14 +2031,99 @@
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="M43:M47"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="M48:M52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="K48:K52"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/受控文件/组内评分/评分表.xlsx
+++ b/受控文件/组内评分/评分表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\组内评分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4812925-C991-489A-9199-DE5B44997A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6656FC6B-8C43-4A35-A360-F7086B9DC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="285" yWindow="1073" windowWidth="22215" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
   <si>
     <t>工作分工</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,6 +353,30 @@
   </si>
   <si>
     <t>对象图部分PPT的制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册的修改、E-R图修改、变更需求的可行性分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员界面原型的修改、变更阶段组内评审记录文档的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师端界面原型的修改，需求管理工具的使用和管理需求，导出需求跟踪矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更报告的编写、变更申请书的编写、测试用例文档的修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例文档的修改、PPT的制作，项目计划的更新、优先级文档的修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -925,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:O260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="58" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I217" sqref="I217:I221"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="58" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O218" sqref="O218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5106,25 +5130,33 @@
       <c r="D207" s="18">
         <v>95</v>
       </c>
-      <c r="E207" s="18"/>
+      <c r="E207" s="18">
+        <v>96</v>
+      </c>
       <c r="F207" s="18">
         <v>93</v>
       </c>
-      <c r="G207" s="18"/>
+      <c r="G207" s="18">
+        <v>96</v>
+      </c>
       <c r="H207" s="14">
         <v>95</v>
       </c>
       <c r="I207" s="12">
         <v>96</v>
       </c>
-      <c r="J207" s="12"/>
+      <c r="J207" s="12">
+        <v>96</v>
+      </c>
       <c r="K207" s="12">
         <v>94</v>
       </c>
-      <c r="L207" s="12"/>
+      <c r="L207" s="12">
+        <v>96</v>
+      </c>
       <c r="M207" s="13">
         <f>0.1*(C207+D207+E207+F207+G207+H207+I207+J207+K207+L207)</f>
-        <v>56.800000000000004</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -5200,25 +5232,33 @@
       <c r="D212" s="18">
         <v>95</v>
       </c>
-      <c r="E212" s="18"/>
+      <c r="E212" s="18">
+        <v>97</v>
+      </c>
       <c r="F212" s="12">
         <v>95</v>
       </c>
-      <c r="G212" s="19"/>
+      <c r="G212" s="18">
+        <v>97</v>
+      </c>
       <c r="H212" s="18">
         <v>95</v>
       </c>
       <c r="I212" s="12">
         <v>96</v>
       </c>
-      <c r="J212" s="12"/>
+      <c r="J212" s="12">
+        <v>97</v>
+      </c>
       <c r="K212" s="12">
         <v>95</v>
       </c>
-      <c r="L212" s="19"/>
+      <c r="L212" s="12">
+        <v>97</v>
+      </c>
       <c r="M212" s="13">
         <f t="shared" ref="M212" si="28">0.1*(C212+D212+E212+F212+G212+H212+I212+J212+K212+L212)</f>
-        <v>57.1</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -5228,12 +5268,12 @@
       <c r="D213" s="18"/>
       <c r="E213" s="18"/>
       <c r="F213" s="12"/>
-      <c r="G213" s="19"/>
+      <c r="G213" s="18"/>
       <c r="H213" s="18"/>
       <c r="I213" s="12"/>
       <c r="J213" s="12"/>
       <c r="K213" s="12"/>
-      <c r="L213" s="19"/>
+      <c r="L213" s="12"/>
       <c r="M213" s="14"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -5243,12 +5283,12 @@
       <c r="D214" s="18"/>
       <c r="E214" s="18"/>
       <c r="F214" s="12"/>
-      <c r="G214" s="19"/>
+      <c r="G214" s="18"/>
       <c r="H214" s="18"/>
       <c r="I214" s="12"/>
       <c r="J214" s="12"/>
       <c r="K214" s="12"/>
-      <c r="L214" s="19"/>
+      <c r="L214" s="12"/>
       <c r="M214" s="14"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -5258,12 +5298,12 @@
       <c r="D215" s="18"/>
       <c r="E215" s="18"/>
       <c r="F215" s="12"/>
-      <c r="G215" s="19"/>
+      <c r="G215" s="18"/>
       <c r="H215" s="18"/>
       <c r="I215" s="12"/>
       <c r="J215" s="12"/>
       <c r="K215" s="12"/>
-      <c r="L215" s="19"/>
+      <c r="L215" s="12"/>
       <c r="M215" s="14"/>
     </row>
     <row r="216" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -5273,12 +5313,12 @@
       <c r="D216" s="18"/>
       <c r="E216" s="18"/>
       <c r="F216" s="12"/>
-      <c r="G216" s="19"/>
+      <c r="G216" s="18"/>
       <c r="H216" s="18"/>
       <c r="I216" s="12"/>
       <c r="J216" s="12"/>
       <c r="K216" s="12"/>
-      <c r="L216" s="19"/>
+      <c r="L216" s="12"/>
       <c r="M216" s="14"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -5294,25 +5334,33 @@
       <c r="D217" s="18">
         <v>94</v>
       </c>
-      <c r="E217" s="18"/>
+      <c r="E217" s="18">
+        <v>98</v>
+      </c>
       <c r="F217" s="18">
         <v>94</v>
       </c>
-      <c r="G217" s="18"/>
+      <c r="G217" s="18">
+        <v>98</v>
+      </c>
       <c r="H217" s="14">
         <v>95</v>
       </c>
       <c r="I217" s="12">
         <v>95</v>
       </c>
-      <c r="J217" s="12"/>
+      <c r="J217" s="12">
+        <v>98</v>
+      </c>
       <c r="K217" s="12">
         <v>93</v>
       </c>
-      <c r="L217" s="19"/>
+      <c r="L217" s="12">
+        <v>98</v>
+      </c>
       <c r="M217" s="13">
         <f t="shared" ref="M217" si="29">0.1*(C217+D217+E217+F217+G217+H217+I217+J217+K217+L217)</f>
-        <v>56.6</v>
+        <v>95.800000000000011</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -5327,7 +5375,7 @@
       <c r="I218" s="12"/>
       <c r="J218" s="12"/>
       <c r="K218" s="12"/>
-      <c r="L218" s="19"/>
+      <c r="L218" s="12"/>
       <c r="M218" s="14"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -5342,7 +5390,7 @@
       <c r="I219" s="12"/>
       <c r="J219" s="12"/>
       <c r="K219" s="12"/>
-      <c r="L219" s="19"/>
+      <c r="L219" s="12"/>
       <c r="M219" s="14"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -5357,7 +5405,7 @@
       <c r="I220" s="12"/>
       <c r="J220" s="12"/>
       <c r="K220" s="12"/>
-      <c r="L220" s="19"/>
+      <c r="L220" s="12"/>
       <c r="M220" s="14"/>
     </row>
     <row r="221" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
@@ -5372,7 +5420,7 @@
       <c r="I221" s="12"/>
       <c r="J221" s="12"/>
       <c r="K221" s="12"/>
-      <c r="L221" s="19"/>
+      <c r="L221" s="12"/>
       <c r="M221" s="14"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -5388,25 +5436,33 @@
       <c r="D222" s="18">
         <v>95</v>
       </c>
-      <c r="E222" s="18"/>
+      <c r="E222" s="18">
+        <v>99</v>
+      </c>
       <c r="F222" s="12">
         <v>93</v>
       </c>
-      <c r="G222" s="19"/>
+      <c r="G222" s="18">
+        <v>99</v>
+      </c>
       <c r="H222" s="18">
         <v>95</v>
       </c>
       <c r="I222" s="12">
         <v>96</v>
       </c>
-      <c r="J222" s="12"/>
+      <c r="J222" s="12">
+        <v>99</v>
+      </c>
       <c r="K222" s="12">
         <v>93</v>
       </c>
-      <c r="L222" s="12"/>
+      <c r="L222" s="12">
+        <v>99</v>
+      </c>
       <c r="M222" s="13">
         <f t="shared" ref="M222" si="30">0.1*(C222+D222+E222+F222+G222+H222+I222+J222+K222+L222)</f>
-        <v>56.7</v>
+        <v>96.300000000000011</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -5416,7 +5472,7 @@
       <c r="D223" s="18"/>
       <c r="E223" s="18"/>
       <c r="F223" s="12"/>
-      <c r="G223" s="19"/>
+      <c r="G223" s="18"/>
       <c r="H223" s="18"/>
       <c r="I223" s="12"/>
       <c r="J223" s="12"/>
@@ -5431,7 +5487,7 @@
       <c r="D224" s="18"/>
       <c r="E224" s="18"/>
       <c r="F224" s="12"/>
-      <c r="G224" s="19"/>
+      <c r="G224" s="18"/>
       <c r="H224" s="18"/>
       <c r="I224" s="12"/>
       <c r="J224" s="12"/>
@@ -5446,7 +5502,7 @@
       <c r="D225" s="18"/>
       <c r="E225" s="18"/>
       <c r="F225" s="12"/>
-      <c r="G225" s="19"/>
+      <c r="G225" s="18"/>
       <c r="H225" s="18"/>
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
@@ -5461,7 +5517,7 @@
       <c r="D226" s="18"/>
       <c r="E226" s="18"/>
       <c r="F226" s="12"/>
-      <c r="G226" s="19"/>
+      <c r="G226" s="18"/>
       <c r="H226" s="18"/>
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
@@ -5482,25 +5538,33 @@
       <c r="D227" s="18">
         <v>95</v>
       </c>
-      <c r="E227" s="18"/>
+      <c r="E227" s="18">
+        <v>100</v>
+      </c>
       <c r="F227" s="18">
         <v>97</v>
       </c>
-      <c r="G227" s="18"/>
+      <c r="G227" s="18">
+        <v>100</v>
+      </c>
       <c r="H227" s="14">
         <v>96</v>
       </c>
       <c r="I227" s="12">
         <v>96</v>
       </c>
-      <c r="J227" s="12"/>
+      <c r="J227" s="12">
+        <v>100</v>
+      </c>
       <c r="K227" s="12">
         <v>96</v>
       </c>
-      <c r="L227" s="19"/>
+      <c r="L227" s="12">
+        <v>100</v>
+      </c>
       <c r="M227" s="13">
         <f t="shared" ref="M227" si="31">0.1*(C227+D227+E227+F227+G227+H227+I227+J227+K227+L227)</f>
-        <v>57.6</v>
+        <v>97.600000000000009</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -5515,7 +5579,7 @@
       <c r="I228" s="12"/>
       <c r="J228" s="12"/>
       <c r="K228" s="12"/>
-      <c r="L228" s="19"/>
+      <c r="L228" s="12"/>
       <c r="M228" s="14"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -5530,7 +5594,7 @@
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
       <c r="K229" s="12"/>
-      <c r="L229" s="19"/>
+      <c r="L229" s="12"/>
       <c r="M229" s="14"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -5545,7 +5609,7 @@
       <c r="I230" s="12"/>
       <c r="J230" s="12"/>
       <c r="K230" s="12"/>
-      <c r="L230" s="19"/>
+      <c r="L230" s="12"/>
       <c r="M230" s="14"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -5560,11 +5624,588 @@
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
       <c r="K231" s="12"/>
-      <c r="L231" s="19"/>
+      <c r="L231" s="12"/>
       <c r="M231" s="14"/>
     </row>
+    <row r="233" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A233" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B233" s="26"/>
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:13" ht="17.649999999999999" x14ac:dyDescent="0.3">
+      <c r="A234" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="29"/>
+      <c r="H234" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
+      <c r="K234" s="28"/>
+      <c r="L234" s="29"/>
+      <c r="M234" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235" s="15"/>
+      <c r="B235" s="15"/>
+      <c r="C235" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M235" s="27"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C236" s="14">
+        <v>95</v>
+      </c>
+      <c r="D236" s="18">
+        <v>94</v>
+      </c>
+      <c r="E236" s="18">
+        <v>95</v>
+      </c>
+      <c r="F236" s="18">
+        <v>93</v>
+      </c>
+      <c r="G236" s="18">
+        <v>97</v>
+      </c>
+      <c r="H236" s="14">
+        <v>96</v>
+      </c>
+      <c r="I236" s="12">
+        <v>95</v>
+      </c>
+      <c r="J236" s="12">
+        <v>96</v>
+      </c>
+      <c r="K236" s="12">
+        <v>94</v>
+      </c>
+      <c r="L236" s="12">
+        <v>96</v>
+      </c>
+      <c r="M236" s="13">
+        <f>0.1*(C236+D236+E236+F236+G236+H236+I236+J236+K236+L236)</f>
+        <v>95.100000000000009</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237" s="21"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="12"/>
+      <c r="J237" s="12"/>
+      <c r="K237" s="12"/>
+      <c r="L237" s="12"/>
+      <c r="M237" s="14"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238" s="21"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="12"/>
+      <c r="J238" s="12"/>
+      <c r="K238" s="12"/>
+      <c r="L238" s="12"/>
+      <c r="M238" s="14"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239" s="21"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="14"/>
+    </row>
+    <row r="240" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="22"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="12"/>
+      <c r="M240" s="14"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C241" s="14">
+        <v>96</v>
+      </c>
+      <c r="D241" s="18">
+        <v>94</v>
+      </c>
+      <c r="E241" s="18">
+        <v>95</v>
+      </c>
+      <c r="F241" s="12">
+        <v>95</v>
+      </c>
+      <c r="G241" s="19">
+        <v>95</v>
+      </c>
+      <c r="H241" s="18">
+        <v>96</v>
+      </c>
+      <c r="I241" s="12">
+        <v>96</v>
+      </c>
+      <c r="J241" s="12">
+        <v>96</v>
+      </c>
+      <c r="K241" s="12">
+        <v>94</v>
+      </c>
+      <c r="L241" s="19">
+        <v>96</v>
+      </c>
+      <c r="M241" s="13">
+        <f t="shared" ref="M241" si="32">0.1*(C241+D241+E241+F241+G241+H241+I241+J241+K241+L241)</f>
+        <v>95.300000000000011</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" s="21"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="19"/>
+      <c r="H242" s="18"/>
+      <c r="I242" s="12"/>
+      <c r="J242" s="12"/>
+      <c r="K242" s="12"/>
+      <c r="L242" s="19"/>
+      <c r="M242" s="14"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" s="21"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="19"/>
+      <c r="H243" s="18"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="12"/>
+      <c r="K243" s="12"/>
+      <c r="L243" s="19"/>
+      <c r="M243" s="14"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" s="21"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="18"/>
+      <c r="I244" s="12"/>
+      <c r="J244" s="12"/>
+      <c r="K244" s="12"/>
+      <c r="L244" s="19"/>
+      <c r="M244" s="14"/>
+    </row>
+    <row r="245" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="22"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="19"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="12"/>
+      <c r="J245" s="12"/>
+      <c r="K245" s="12"/>
+      <c r="L245" s="19"/>
+      <c r="M245" s="14"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C246" s="14">
+        <v>96</v>
+      </c>
+      <c r="D246" s="18">
+        <v>95</v>
+      </c>
+      <c r="E246" s="18">
+        <v>96</v>
+      </c>
+      <c r="F246" s="18">
+        <v>95</v>
+      </c>
+      <c r="G246" s="18">
+        <v>97</v>
+      </c>
+      <c r="H246" s="14">
+        <v>96</v>
+      </c>
+      <c r="I246" s="12">
+        <v>97</v>
+      </c>
+      <c r="J246" s="12">
+        <v>97</v>
+      </c>
+      <c r="K246" s="12">
+        <v>95</v>
+      </c>
+      <c r="L246" s="19">
+        <v>96</v>
+      </c>
+      <c r="M246" s="13">
+        <f t="shared" ref="M246" si="33">0.1*(C246+D246+E246+F246+G246+H246+I246+J246+K246+L246)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247" s="21"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="12"/>
+      <c r="J247" s="12"/>
+      <c r="K247" s="12"/>
+      <c r="L247" s="19"/>
+      <c r="M247" s="14"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248" s="21"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="18"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="12"/>
+      <c r="J248" s="12"/>
+      <c r="K248" s="12"/>
+      <c r="L248" s="19"/>
+      <c r="M248" s="14"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249" s="21"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="18"/>
+      <c r="G249" s="18"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="12"/>
+      <c r="K249" s="12"/>
+      <c r="L249" s="19"/>
+      <c r="M249" s="14"/>
+    </row>
+    <row r="250" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="22"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="18"/>
+      <c r="G250" s="18"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="12"/>
+      <c r="J250" s="12"/>
+      <c r="K250" s="12"/>
+      <c r="L250" s="19"/>
+      <c r="M250" s="14"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C251" s="14">
+        <v>97</v>
+      </c>
+      <c r="D251" s="18">
+        <v>94</v>
+      </c>
+      <c r="E251" s="18">
+        <v>95</v>
+      </c>
+      <c r="F251" s="12">
+        <v>92</v>
+      </c>
+      <c r="G251" s="19">
+        <v>95</v>
+      </c>
+      <c r="H251" s="18">
+        <v>97</v>
+      </c>
+      <c r="I251" s="12">
+        <v>96</v>
+      </c>
+      <c r="J251" s="12">
+        <v>97</v>
+      </c>
+      <c r="K251" s="12">
+        <v>93</v>
+      </c>
+      <c r="L251" s="12">
+        <v>96</v>
+      </c>
+      <c r="M251" s="13">
+        <f t="shared" ref="M251" si="34">0.1*(C251+D251+E251+F251+G251+H251+I251+J251+K251+L251)</f>
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252" s="21"/>
+      <c r="B252" s="24"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="12"/>
+      <c r="J252" s="12"/>
+      <c r="K252" s="12"/>
+      <c r="L252" s="12"/>
+      <c r="M252" s="14"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253" s="21"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="18"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="12"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="12"/>
+      <c r="M253" s="14"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254" s="21"/>
+      <c r="B254" s="24"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="18"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="12"/>
+      <c r="K254" s="12"/>
+      <c r="L254" s="12"/>
+      <c r="M254" s="14"/>
+    </row>
+    <row r="255" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="22"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="18"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="18"/>
+      <c r="I255" s="12"/>
+      <c r="J255" s="12"/>
+      <c r="K255" s="12"/>
+      <c r="L255" s="12"/>
+      <c r="M255" s="14"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C256" s="14">
+        <v>95</v>
+      </c>
+      <c r="D256" s="18">
+        <v>96</v>
+      </c>
+      <c r="E256" s="18">
+        <v>97</v>
+      </c>
+      <c r="F256" s="18">
+        <v>96</v>
+      </c>
+      <c r="G256" s="18">
+        <v>92</v>
+      </c>
+      <c r="H256" s="14">
+        <v>96</v>
+      </c>
+      <c r="I256" s="12">
+        <v>97</v>
+      </c>
+      <c r="J256" s="12">
+        <v>97</v>
+      </c>
+      <c r="K256" s="12">
+        <v>95</v>
+      </c>
+      <c r="L256" s="19">
+        <v>95</v>
+      </c>
+      <c r="M256" s="13">
+        <f t="shared" ref="M256" si="35">0.1*(C256+D256+E256+F256+G256+H256+I256+J256+K256+L256)</f>
+        <v>95.600000000000009</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257" s="15"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="12"/>
+      <c r="J257" s="12"/>
+      <c r="K257" s="12"/>
+      <c r="L257" s="19"/>
+      <c r="M257" s="14"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258" s="15"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="18"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="12"/>
+      <c r="J258" s="12"/>
+      <c r="K258" s="12"/>
+      <c r="L258" s="19"/>
+      <c r="M258" s="14"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" s="15"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="18"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="12"/>
+      <c r="J259" s="12"/>
+      <c r="K259" s="12"/>
+      <c r="L259" s="19"/>
+      <c r="M259" s="14"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" s="15"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="18"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="18"/>
+      <c r="G260" s="18"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="12"/>
+      <c r="J260" s="12"/>
+      <c r="K260" s="12"/>
+      <c r="L260" s="19"/>
+      <c r="M260" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="563">
+  <mergeCells count="634">
     <mergeCell ref="J135:J139"/>
     <mergeCell ref="K135:K139"/>
     <mergeCell ref="L135:L139"/>
@@ -6128,6 +6769,77 @@
     <mergeCell ref="E222:E226"/>
     <mergeCell ref="F222:F226"/>
     <mergeCell ref="G222:G226"/>
+    <mergeCell ref="M234:M235"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="D236:D240"/>
+    <mergeCell ref="E236:E240"/>
+    <mergeCell ref="F236:F240"/>
+    <mergeCell ref="G236:G240"/>
+    <mergeCell ref="H236:H240"/>
+    <mergeCell ref="I236:I240"/>
+    <mergeCell ref="J236:J240"/>
+    <mergeCell ref="K236:K240"/>
+    <mergeCell ref="L236:L240"/>
+    <mergeCell ref="M236:M240"/>
+    <mergeCell ref="F241:F245"/>
+    <mergeCell ref="G241:G245"/>
+    <mergeCell ref="H241:H245"/>
+    <mergeCell ref="I241:I245"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="H234:L234"/>
+    <mergeCell ref="H251:H255"/>
+    <mergeCell ref="I251:I255"/>
+    <mergeCell ref="J241:J245"/>
+    <mergeCell ref="K241:K245"/>
+    <mergeCell ref="L241:L245"/>
+    <mergeCell ref="M241:M245"/>
+    <mergeCell ref="A246:A250"/>
+    <mergeCell ref="B246:B250"/>
+    <mergeCell ref="C246:C250"/>
+    <mergeCell ref="D246:D250"/>
+    <mergeCell ref="E246:E250"/>
+    <mergeCell ref="F246:F250"/>
+    <mergeCell ref="G246:G250"/>
+    <mergeCell ref="H246:H250"/>
+    <mergeCell ref="I246:I250"/>
+    <mergeCell ref="J246:J250"/>
+    <mergeCell ref="K246:K250"/>
+    <mergeCell ref="L246:L250"/>
+    <mergeCell ref="M246:M250"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
+    <mergeCell ref="J251:J255"/>
+    <mergeCell ref="K251:K255"/>
+    <mergeCell ref="L251:L255"/>
+    <mergeCell ref="M251:M255"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="B256:B260"/>
+    <mergeCell ref="C256:C260"/>
+    <mergeCell ref="D256:D260"/>
+    <mergeCell ref="E256:E260"/>
+    <mergeCell ref="F256:F260"/>
+    <mergeCell ref="G256:G260"/>
+    <mergeCell ref="H256:H260"/>
+    <mergeCell ref="I256:I260"/>
+    <mergeCell ref="J256:J260"/>
+    <mergeCell ref="K256:K260"/>
+    <mergeCell ref="L256:L260"/>
+    <mergeCell ref="M256:M260"/>
+    <mergeCell ref="A251:A255"/>
+    <mergeCell ref="B251:B255"/>
+    <mergeCell ref="C251:C255"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="E251:E255"/>
+    <mergeCell ref="F251:F255"/>
+    <mergeCell ref="G251:G255"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
